--- a/attendance-files/B2B/B2B Attendance - B.xlsx
+++ b/attendance-files/B2B/B2B Attendance - B.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="171">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1630,11 +1630,11 @@
       </c>
       <c r="E7" s="41">
         <f>COUNTIF(H7:Z7,"A")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" s="41">
         <f>COUNTIF(H7:Z7,"P")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" s="42" t="s">
         <v>40</v>
@@ -1681,8 +1681,12 @@
       <c r="U7" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V7" s="46"/>
-      <c r="W7" s="46"/>
+      <c r="V7" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W7" s="45" t="s">
+        <v>42</v>
+      </c>
       <c r="X7" s="46"/>
       <c r="Y7" s="46"/>
       <c r="Z7" s="46"/>
@@ -1703,11 +1707,11 @@
       </c>
       <c r="E8" s="41">
         <f t="shared" ref="E8:E92" si="1">COUNTIF(G8:Z8,"A")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" s="41">
         <f t="shared" ref="F8:F92" si="2">COUNTIF(G8:Z8,"P")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" s="42" t="s">
         <v>40</v>
@@ -1754,8 +1758,12 @@
       <c r="U8" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V8" s="46"/>
-      <c r="W8" s="46"/>
+      <c r="V8" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W8" s="45" t="s">
+        <v>42</v>
+      </c>
       <c r="X8" s="46"/>
       <c r="Y8" s="46"/>
       <c r="Z8" s="46"/>
@@ -1780,7 +1788,7 @@
       </c>
       <c r="F9" s="41">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G9" s="42" t="s">
         <v>40</v>
@@ -1827,8 +1835,12 @@
       <c r="U9" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V9" s="46"/>
-      <c r="W9" s="46"/>
+      <c r="V9" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W9" s="45" t="s">
+        <v>41</v>
+      </c>
       <c r="X9" s="46"/>
       <c r="Y9" s="46"/>
       <c r="Z9" s="46"/>
@@ -1849,11 +1861,11 @@
       </c>
       <c r="E10" s="41">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G10" s="42" t="s">
         <v>40</v>
@@ -1900,8 +1912,12 @@
       <c r="U10" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V10" s="46"/>
-      <c r="W10" s="46"/>
+      <c r="V10" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W10" s="45" t="s">
+        <v>42</v>
+      </c>
       <c r="X10" s="46"/>
       <c r="Y10" s="46"/>
       <c r="Z10" s="46"/>
@@ -1922,11 +1938,11 @@
       </c>
       <c r="E11" s="41">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="41">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G11" s="42" t="s">
         <v>40</v>
@@ -1973,8 +1989,12 @@
       <c r="U11" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V11" s="46"/>
-      <c r="W11" s="46"/>
+      <c r="V11" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W11" s="45" t="s">
+        <v>42</v>
+      </c>
       <c r="X11" s="46"/>
       <c r="Y11" s="46"/>
       <c r="Z11" s="46"/>
@@ -1999,7 +2019,7 @@
       </c>
       <c r="F12" s="41">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G12" s="42" t="s">
         <v>40</v>
@@ -2046,8 +2066,12 @@
       <c r="U12" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="V12" s="46"/>
-      <c r="W12" s="46"/>
+      <c r="V12" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W12" s="45" t="s">
+        <v>41</v>
+      </c>
       <c r="X12" s="46"/>
       <c r="Y12" s="46"/>
       <c r="Z12" s="46"/>
@@ -2068,11 +2092,11 @@
       </c>
       <c r="E13" s="41">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F13" s="41">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G13" s="42" t="s">
         <v>40</v>
@@ -2108,19 +2132,23 @@
         <v>42</v>
       </c>
       <c r="R13" s="45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S13" s="45" t="s">
         <v>42</v>
       </c>
       <c r="T13" s="45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U13" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V13" s="46"/>
-      <c r="W13" s="46"/>
+      <c r="V13" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W13" s="45" t="s">
+        <v>41</v>
+      </c>
       <c r="X13" s="46"/>
       <c r="Y13" s="46"/>
       <c r="Z13" s="46"/>
@@ -2145,7 +2173,7 @@
       </c>
       <c r="F14" s="41">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G14" s="42" t="s">
         <v>40</v>
@@ -2192,8 +2220,12 @@
       <c r="U14" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V14" s="46"/>
-      <c r="W14" s="46"/>
+      <c r="V14" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W14" s="45" t="s">
+        <v>41</v>
+      </c>
       <c r="X14" s="46"/>
       <c r="Y14" s="46"/>
       <c r="Z14" s="46"/>
@@ -2218,7 +2250,7 @@
       </c>
       <c r="F15" s="41">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G15" s="42" t="s">
         <v>40</v>
@@ -2265,8 +2297,12 @@
       <c r="U15" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V15" s="46"/>
-      <c r="W15" s="46"/>
+      <c r="V15" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W15" s="45" t="s">
+        <v>41</v>
+      </c>
       <c r="X15" s="46"/>
       <c r="Y15" s="46"/>
       <c r="Z15" s="46"/>
@@ -2287,11 +2323,11 @@
       </c>
       <c r="E16" s="41">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16" s="41">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" s="42" t="s">
         <v>40</v>
@@ -2338,8 +2374,12 @@
       <c r="U16" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V16" s="46"/>
-      <c r="W16" s="46"/>
+      <c r="V16" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W16" s="45" t="s">
+        <v>42</v>
+      </c>
       <c r="X16" s="46"/>
       <c r="Y16" s="46"/>
       <c r="Z16" s="46"/>
@@ -2364,7 +2404,7 @@
       </c>
       <c r="F17" s="41">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G17" s="42" t="s">
         <v>40</v>
@@ -2411,8 +2451,12 @@
       <c r="U17" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V17" s="46"/>
-      <c r="W17" s="46"/>
+      <c r="V17" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W17" s="45" t="s">
+        <v>41</v>
+      </c>
       <c r="X17" s="46"/>
       <c r="Y17" s="46"/>
       <c r="Z17" s="46"/>
@@ -2437,7 +2481,7 @@
       </c>
       <c r="F18" s="41">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G18" s="42" t="s">
         <v>40</v>
@@ -2484,8 +2528,12 @@
       <c r="U18" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V18" s="46"/>
-      <c r="W18" s="46"/>
+      <c r="V18" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W18" s="45" t="s">
+        <v>41</v>
+      </c>
       <c r="X18" s="46"/>
       <c r="Y18" s="46"/>
       <c r="Z18" s="46"/>
@@ -2506,11 +2554,11 @@
       </c>
       <c r="E19" s="41">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F19" s="41">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G19" s="42" t="s">
         <v>40</v>
@@ -2557,8 +2605,12 @@
       <c r="U19" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V19" s="46"/>
-      <c r="W19" s="46"/>
+      <c r="V19" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W19" s="45" t="s">
+        <v>42</v>
+      </c>
       <c r="X19" s="46"/>
       <c r="Y19" s="46"/>
       <c r="Z19" s="46"/>
@@ -2583,7 +2635,7 @@
       </c>
       <c r="F20" s="41">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G20" s="42" t="s">
         <v>40</v>
@@ -2630,8 +2682,12 @@
       <c r="U20" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V20" s="46"/>
-      <c r="W20" s="46"/>
+      <c r="V20" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W20" s="45" t="s">
+        <v>41</v>
+      </c>
       <c r="X20" s="46"/>
       <c r="Y20" s="46"/>
       <c r="Z20" s="46"/>
@@ -2656,7 +2712,7 @@
       </c>
       <c r="F21" s="41">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G21" s="42" t="s">
         <v>40</v>
@@ -2703,8 +2759,12 @@
       <c r="U21" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V21" s="46"/>
-      <c r="W21" s="46"/>
+      <c r="V21" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W21" s="45" t="s">
+        <v>41</v>
+      </c>
       <c r="X21" s="46"/>
       <c r="Y21" s="46"/>
       <c r="Z21" s="46"/>
@@ -2729,7 +2789,7 @@
       </c>
       <c r="F22" s="41">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G22" s="42" t="s">
         <v>40</v>
@@ -2776,8 +2836,12 @@
       <c r="U22" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V22" s="46"/>
-      <c r="W22" s="46"/>
+      <c r="V22" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W22" s="45" t="s">
+        <v>41</v>
+      </c>
       <c r="X22" s="46"/>
       <c r="Y22" s="46"/>
       <c r="Z22" s="46"/>
@@ -2798,11 +2862,11 @@
       </c>
       <c r="E23" s="41">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23" s="41">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G23" s="42" t="s">
         <v>40</v>
@@ -2849,8 +2913,12 @@
       <c r="U23" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V23" s="46"/>
-      <c r="W23" s="46"/>
+      <c r="V23" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W23" s="45" t="s">
+        <v>42</v>
+      </c>
       <c r="X23" s="46"/>
       <c r="Y23" s="46"/>
       <c r="Z23" s="46"/>
@@ -2871,11 +2939,11 @@
       </c>
       <c r="E24" s="41">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24" s="41">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G24" s="42" t="s">
         <v>40</v>
@@ -2922,8 +2990,12 @@
       <c r="U24" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V24" s="46"/>
-      <c r="W24" s="46"/>
+      <c r="V24" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W24" s="45" t="s">
+        <v>42</v>
+      </c>
       <c r="X24" s="46"/>
       <c r="Y24" s="46"/>
       <c r="Z24" s="46"/>
@@ -2944,11 +3016,11 @@
       </c>
       <c r="E25" s="41">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25" s="41">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G25" s="42" t="s">
         <v>40</v>
@@ -2995,8 +3067,12 @@
       <c r="U25" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V25" s="46"/>
-      <c r="W25" s="46"/>
+      <c r="V25" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W25" s="45" t="s">
+        <v>42</v>
+      </c>
       <c r="X25" s="46"/>
       <c r="Y25" s="46"/>
       <c r="Z25" s="46"/>
@@ -3017,11 +3093,11 @@
       </c>
       <c r="E26" s="41">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F26" s="41">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G26" s="42" t="s">
         <v>40</v>
@@ -3068,8 +3144,12 @@
       <c r="U26" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="V26" s="46"/>
-      <c r="W26" s="46"/>
+      <c r="V26" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W26" s="45" t="s">
+        <v>42</v>
+      </c>
       <c r="X26" s="46"/>
       <c r="Y26" s="46"/>
       <c r="Z26" s="46"/>
@@ -3090,11 +3170,11 @@
       </c>
       <c r="E27" s="41">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F27" s="41">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G27" s="42" t="s">
         <v>40</v>
@@ -3141,8 +3221,12 @@
       <c r="U27" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V27" s="46"/>
-      <c r="W27" s="46"/>
+      <c r="V27" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="W27" s="45" t="s">
+        <v>41</v>
+      </c>
       <c r="X27" s="46"/>
       <c r="Y27" s="46"/>
       <c r="Z27" s="46"/>
@@ -3167,7 +3251,7 @@
       </c>
       <c r="F28" s="41">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G28" s="42" t="s">
         <v>40</v>
@@ -3214,8 +3298,12 @@
       <c r="U28" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V28" s="46"/>
-      <c r="W28" s="46"/>
+      <c r="V28" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W28" s="45" t="s">
+        <v>41</v>
+      </c>
       <c r="X28" s="46"/>
       <c r="Y28" s="46"/>
       <c r="Z28" s="46"/>
@@ -3240,7 +3328,7 @@
       </c>
       <c r="F29" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G29" s="42" t="s">
         <v>40</v>
@@ -3287,8 +3375,12 @@
       <c r="U29" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V29" s="46"/>
-      <c r="W29" s="46"/>
+      <c r="V29" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W29" s="45" t="s">
+        <v>41</v>
+      </c>
       <c r="X29" s="46"/>
       <c r="Y29" s="46"/>
       <c r="Z29" s="46"/>
@@ -3309,11 +3401,11 @@
       </c>
       <c r="E30" s="41">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30" s="41">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G30" s="42" t="s">
         <v>40</v>
@@ -3360,8 +3452,12 @@
       <c r="U30" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V30" s="46"/>
-      <c r="W30" s="46"/>
+      <c r="V30" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="W30" s="45" t="s">
+        <v>41</v>
+      </c>
       <c r="X30" s="46"/>
       <c r="Y30" s="46"/>
       <c r="Z30" s="46"/>
@@ -3386,7 +3482,7 @@
       </c>
       <c r="F31" s="41">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G31" s="42" t="s">
         <v>42</v>
@@ -3433,8 +3529,12 @@
       <c r="U31" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="V31" s="46"/>
-      <c r="W31" s="46"/>
+      <c r="V31" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W31" s="45" t="s">
+        <v>41</v>
+      </c>
       <c r="X31" s="46"/>
       <c r="Y31" s="46"/>
       <c r="Z31" s="46"/>
@@ -3459,7 +3559,7 @@
       </c>
       <c r="F32" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G32" s="42" t="s">
         <v>40</v>
@@ -3506,8 +3606,12 @@
       <c r="U32" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V32" s="46"/>
-      <c r="W32" s="46"/>
+      <c r="V32" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W32" s="45" t="s">
+        <v>41</v>
+      </c>
       <c r="X32" s="46"/>
       <c r="Y32" s="46"/>
       <c r="Z32" s="46"/>
@@ -3532,7 +3636,7 @@
       </c>
       <c r="F33" s="41">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G33" s="42" t="s">
         <v>40</v>
@@ -3579,8 +3683,12 @@
       <c r="U33" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V33" s="46"/>
-      <c r="W33" s="46"/>
+      <c r="V33" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W33" s="45" t="s">
+        <v>41</v>
+      </c>
       <c r="X33" s="46"/>
       <c r="Y33" s="46"/>
       <c r="Z33" s="46"/>
@@ -3605,7 +3713,7 @@
       </c>
       <c r="F34" s="41">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G34" s="42" t="s">
         <v>40</v>
@@ -3652,8 +3760,12 @@
       <c r="U34" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V34" s="46"/>
-      <c r="W34" s="46"/>
+      <c r="V34" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W34" s="45" t="s">
+        <v>41</v>
+      </c>
       <c r="X34" s="46"/>
       <c r="Y34" s="46"/>
       <c r="Z34" s="46"/>
@@ -3678,7 +3790,7 @@
       </c>
       <c r="F35" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G35" s="42" t="s">
         <v>40</v>
@@ -3725,8 +3837,12 @@
       <c r="U35" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V35" s="46"/>
-      <c r="W35" s="46"/>
+      <c r="V35" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W35" s="45" t="s">
+        <v>41</v>
+      </c>
       <c r="X35" s="46"/>
       <c r="Y35" s="46"/>
       <c r="Z35" s="46"/>
@@ -3747,11 +3863,11 @@
       </c>
       <c r="E36" s="41">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36" s="41">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G36" s="42" t="s">
         <v>40</v>
@@ -3798,8 +3914,12 @@
       <c r="U36" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V36" s="46"/>
-      <c r="W36" s="46"/>
+      <c r="V36" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W36" s="45" t="s">
+        <v>42</v>
+      </c>
       <c r="X36" s="46"/>
       <c r="Y36" s="46"/>
       <c r="Z36" s="46"/>
@@ -3820,11 +3940,11 @@
       </c>
       <c r="E37" s="41">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37" s="41">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G37" s="42" t="s">
         <v>40</v>
@@ -3871,8 +3991,12 @@
       <c r="U37" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V37" s="46"/>
-      <c r="W37" s="46"/>
+      <c r="V37" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="W37" s="45" t="s">
+        <v>41</v>
+      </c>
       <c r="X37" s="46"/>
       <c r="Y37" s="46"/>
       <c r="Z37" s="46"/>
@@ -3897,7 +4021,7 @@
       </c>
       <c r="F38" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G38" s="42" t="s">
         <v>40</v>
@@ -3944,8 +4068,12 @@
       <c r="U38" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V38" s="46"/>
-      <c r="W38" s="46"/>
+      <c r="V38" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W38" s="45" t="s">
+        <v>41</v>
+      </c>
       <c r="X38" s="46"/>
       <c r="Y38" s="46"/>
       <c r="Z38" s="46"/>
@@ -3966,7 +4094,7 @@
       </c>
       <c r="E39" s="41">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F39" s="41">
         <f t="shared" si="2"/>
@@ -4017,8 +4145,12 @@
       <c r="U39" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="V39" s="46"/>
-      <c r="W39" s="46"/>
+      <c r="V39" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="W39" s="45" t="s">
+        <v>42</v>
+      </c>
       <c r="X39" s="46"/>
       <c r="Y39" s="46"/>
       <c r="Z39" s="46"/>
@@ -4043,7 +4175,7 @@
       </c>
       <c r="F40" s="41">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G40" s="42" t="s">
         <v>42</v>
@@ -4090,8 +4222,12 @@
       <c r="U40" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V40" s="46"/>
-      <c r="W40" s="46"/>
+      <c r="V40" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W40" s="45" t="s">
+        <v>41</v>
+      </c>
       <c r="X40" s="46"/>
       <c r="Y40" s="46"/>
       <c r="Z40" s="46"/>
@@ -4112,11 +4248,11 @@
       </c>
       <c r="E41" s="41">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F41" s="41">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G41" s="42" t="s">
         <v>42</v>
@@ -4152,7 +4288,7 @@
         <v>42</v>
       </c>
       <c r="R41" s="45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S41" s="45" t="s">
         <v>42</v>
@@ -4163,8 +4299,12 @@
       <c r="U41" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V41" s="46"/>
-      <c r="W41" s="46"/>
+      <c r="V41" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W41" s="45" t="s">
+        <v>41</v>
+      </c>
       <c r="X41" s="46"/>
       <c r="Y41" s="46"/>
       <c r="Z41" s="46"/>
@@ -4185,11 +4325,11 @@
       </c>
       <c r="E42" s="41">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F42" s="41">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G42" s="42" t="s">
         <v>42</v>
@@ -4236,8 +4376,12 @@
       <c r="U42" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="V42" s="46"/>
-      <c r="W42" s="46"/>
+      <c r="V42" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="W42" s="45" t="s">
+        <v>41</v>
+      </c>
       <c r="X42" s="46"/>
       <c r="Y42" s="46"/>
       <c r="Z42" s="46"/>
@@ -4262,7 +4406,7 @@
       </c>
       <c r="F43" s="41">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G43" s="42" t="s">
         <v>40</v>
@@ -4309,8 +4453,12 @@
       <c r="U43" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V43" s="46"/>
-      <c r="W43" s="46"/>
+      <c r="V43" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W43" s="45" t="s">
+        <v>41</v>
+      </c>
       <c r="X43" s="46"/>
       <c r="Y43" s="46"/>
       <c r="Z43" s="46"/>
@@ -4331,11 +4479,11 @@
       </c>
       <c r="E44" s="41">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F44" s="41">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G44" s="42" t="s">
         <v>40</v>
@@ -4382,8 +4530,12 @@
       <c r="U44" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V44" s="46"/>
-      <c r="W44" s="46"/>
+      <c r="V44" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="W44" s="45" t="s">
+        <v>41</v>
+      </c>
       <c r="X44" s="46"/>
       <c r="Y44" s="46"/>
       <c r="Z44" s="46"/>
@@ -4408,7 +4560,7 @@
       </c>
       <c r="F45" s="41">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G45" s="42" t="s">
         <v>40</v>
@@ -4455,8 +4607,12 @@
       <c r="U45" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V45" s="46"/>
-      <c r="W45" s="46"/>
+      <c r="V45" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W45" s="45" t="s">
+        <v>41</v>
+      </c>
       <c r="X45" s="46"/>
       <c r="Y45" s="46"/>
       <c r="Z45" s="46"/>
@@ -4481,7 +4637,7 @@
       </c>
       <c r="F46" s="41">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G46" s="42" t="s">
         <v>40</v>
@@ -4528,8 +4684,12 @@
       <c r="U46" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V46" s="46"/>
-      <c r="W46" s="46"/>
+      <c r="V46" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W46" s="45" t="s">
+        <v>41</v>
+      </c>
       <c r="X46" s="46"/>
       <c r="Y46" s="46"/>
       <c r="Z46" s="46"/>
@@ -4554,7 +4714,7 @@
       </c>
       <c r="F47" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G47" s="42" t="s">
         <v>40</v>
@@ -4601,8 +4761,12 @@
       <c r="U47" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V47" s="46"/>
-      <c r="W47" s="46"/>
+      <c r="V47" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W47" s="45" t="s">
+        <v>41</v>
+      </c>
       <c r="X47" s="46"/>
       <c r="Y47" s="46"/>
       <c r="Z47" s="46"/>
@@ -4627,7 +4791,7 @@
       </c>
       <c r="F48" s="41">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G48" s="42" t="s">
         <v>42</v>
@@ -4674,8 +4838,12 @@
       <c r="U48" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V48" s="46"/>
-      <c r="W48" s="46"/>
+      <c r="V48" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W48" s="45" t="s">
+        <v>41</v>
+      </c>
       <c r="X48" s="46"/>
       <c r="Y48" s="46"/>
       <c r="Z48" s="46"/>
@@ -4696,11 +4864,11 @@
       </c>
       <c r="E49" s="41">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F49" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G49" s="42" t="s">
         <v>40</v>
@@ -4747,8 +4915,12 @@
       <c r="U49" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V49" s="46"/>
-      <c r="W49" s="46"/>
+      <c r="V49" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W49" s="45" t="s">
+        <v>42</v>
+      </c>
       <c r="X49" s="46"/>
       <c r="Y49" s="46"/>
       <c r="Z49" s="46"/>
@@ -4773,7 +4945,7 @@
       </c>
       <c r="F50" s="41">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G50" s="42" t="s">
         <v>40</v>
@@ -4820,8 +4992,12 @@
       <c r="U50" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V50" s="46"/>
-      <c r="W50" s="46"/>
+      <c r="V50" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W50" s="45" t="s">
+        <v>41</v>
+      </c>
       <c r="X50" s="46"/>
       <c r="Y50" s="46"/>
       <c r="Z50" s="46"/>
@@ -4842,7 +5018,7 @@
       </c>
       <c r="E51" s="41">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F51" s="41">
         <f t="shared" si="2"/>
@@ -4893,8 +5069,12 @@
       <c r="U51" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="V51" s="46"/>
-      <c r="W51" s="46"/>
+      <c r="V51" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="W51" s="45" t="s">
+        <v>42</v>
+      </c>
       <c r="X51" s="46"/>
       <c r="Y51" s="46"/>
       <c r="Z51" s="46"/>
@@ -4919,7 +5099,7 @@
       </c>
       <c r="F52" s="41">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G52" s="42" t="s">
         <v>40</v>
@@ -4966,8 +5146,12 @@
       <c r="U52" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V52" s="46"/>
-      <c r="W52" s="46"/>
+      <c r="V52" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W52" s="45" t="s">
+        <v>41</v>
+      </c>
       <c r="X52" s="46"/>
       <c r="Y52" s="46"/>
       <c r="Z52" s="46"/>
@@ -4988,11 +5172,11 @@
       </c>
       <c r="E53" s="41">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F53" s="41">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G53" s="42" t="s">
         <v>40</v>
@@ -5039,8 +5223,12 @@
       <c r="U53" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V53" s="46"/>
-      <c r="W53" s="46"/>
+      <c r="V53" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W53" s="45" t="s">
+        <v>42</v>
+      </c>
       <c r="X53" s="46"/>
       <c r="Y53" s="46"/>
       <c r="Z53" s="46"/>
@@ -5065,7 +5253,7 @@
       </c>
       <c r="F54" s="41">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G54" s="42" t="s">
         <v>42</v>
@@ -5112,8 +5300,12 @@
       <c r="U54" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V54" s="46"/>
-      <c r="W54" s="46"/>
+      <c r="V54" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W54" s="45" t="s">
+        <v>41</v>
+      </c>
       <c r="X54" s="46"/>
       <c r="Y54" s="46"/>
       <c r="Z54" s="46"/>
@@ -5134,11 +5326,11 @@
       </c>
       <c r="E55" s="41">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G55" s="42" t="s">
         <v>40</v>
@@ -5185,8 +5377,12 @@
       <c r="U55" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V55" s="46"/>
-      <c r="W55" s="46"/>
+      <c r="V55" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="W55" s="45" t="s">
+        <v>41</v>
+      </c>
       <c r="X55" s="46"/>
       <c r="Y55" s="46"/>
       <c r="Z55" s="46"/>
@@ -5207,11 +5403,11 @@
       </c>
       <c r="E56" s="41">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F56" s="41">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G56" s="42" t="s">
         <v>40</v>
@@ -5258,8 +5454,12 @@
       <c r="U56" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="V56" s="46"/>
-      <c r="W56" s="46"/>
+      <c r="V56" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W56" s="45" t="s">
+        <v>42</v>
+      </c>
       <c r="X56" s="46"/>
       <c r="Y56" s="46"/>
       <c r="Z56" s="46"/>
@@ -5284,7 +5484,7 @@
       </c>
       <c r="F57" s="41">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G57" s="42" t="s">
         <v>40</v>
@@ -5331,8 +5531,12 @@
       <c r="U57" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V57" s="46"/>
-      <c r="W57" s="46"/>
+      <c r="V57" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W57" s="45" t="s">
+        <v>41</v>
+      </c>
       <c r="X57" s="46"/>
       <c r="Y57" s="46"/>
       <c r="Z57" s="46"/>
@@ -5357,7 +5561,7 @@
       </c>
       <c r="F58" s="41">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G58" s="42" t="s">
         <v>40</v>
@@ -5404,8 +5608,12 @@
       <c r="U58" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="V58" s="46"/>
-      <c r="W58" s="46"/>
+      <c r="V58" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W58" s="45" t="s">
+        <v>41</v>
+      </c>
       <c r="X58" s="46"/>
       <c r="Y58" s="46"/>
       <c r="Z58" s="46"/>
@@ -5426,11 +5634,11 @@
       </c>
       <c r="E59" s="41">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F59" s="41">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G59" s="42" t="s">
         <v>40</v>
@@ -5469,16 +5677,20 @@
         <v>41</v>
       </c>
       <c r="S59" s="45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T59" s="45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U59" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="V59" s="46"/>
-      <c r="W59" s="46"/>
+      <c r="V59" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W59" s="45" t="s">
+        <v>41</v>
+      </c>
       <c r="X59" s="46"/>
       <c r="Y59" s="46"/>
       <c r="Z59" s="46"/>
@@ -5503,7 +5715,7 @@
       </c>
       <c r="F60" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G60" s="42" t="s">
         <v>40</v>
@@ -5550,8 +5762,12 @@
       <c r="U60" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V60" s="46"/>
-      <c r="W60" s="46"/>
+      <c r="V60" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W60" s="45" t="s">
+        <v>41</v>
+      </c>
       <c r="X60" s="46"/>
       <c r="Y60" s="46"/>
       <c r="Z60" s="46"/>
@@ -5576,7 +5792,7 @@
       </c>
       <c r="F61" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G61" s="42" t="s">
         <v>40</v>
@@ -5623,8 +5839,12 @@
       <c r="U61" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V61" s="46"/>
-      <c r="W61" s="46"/>
+      <c r="V61" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W61" s="45" t="s">
+        <v>41</v>
+      </c>
       <c r="X61" s="46"/>
       <c r="Y61" s="46"/>
       <c r="Z61" s="46"/>
@@ -5645,11 +5865,11 @@
       </c>
       <c r="E62" s="41">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F62" s="41">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G62" s="42" t="s">
         <v>40</v>
@@ -5696,8 +5916,12 @@
       <c r="U62" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V62" s="46"/>
-      <c r="W62" s="46"/>
+      <c r="V62" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="W62" s="45" t="s">
+        <v>41</v>
+      </c>
       <c r="X62" s="46"/>
       <c r="Y62" s="46"/>
       <c r="Z62" s="46"/>
@@ -5722,7 +5946,7 @@
       </c>
       <c r="F63" s="41">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G63" s="42" t="s">
         <v>42</v>
@@ -5769,8 +5993,12 @@
       <c r="U63" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V63" s="46"/>
-      <c r="W63" s="46"/>
+      <c r="V63" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W63" s="45" t="s">
+        <v>41</v>
+      </c>
       <c r="X63" s="46"/>
       <c r="Y63" s="46"/>
       <c r="Z63" s="46"/>
@@ -5795,7 +6023,7 @@
       </c>
       <c r="F64" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G64" s="42" t="s">
         <v>40</v>
@@ -5842,8 +6070,12 @@
       <c r="U64" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V64" s="46"/>
-      <c r="W64" s="46"/>
+      <c r="V64" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W64" s="45" t="s">
+        <v>41</v>
+      </c>
       <c r="X64" s="46"/>
       <c r="Y64" s="46"/>
       <c r="Z64" s="46"/>
@@ -5868,7 +6100,7 @@
       </c>
       <c r="F65" s="41">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G65" s="42" t="s">
         <v>40</v>
@@ -5915,8 +6147,12 @@
       <c r="U65" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V65" s="46"/>
-      <c r="W65" s="46"/>
+      <c r="V65" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W65" s="45" t="s">
+        <v>41</v>
+      </c>
       <c r="X65" s="46"/>
       <c r="Y65" s="46"/>
       <c r="Z65" s="46"/>
@@ -5941,7 +6177,7 @@
       </c>
       <c r="F66" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G66" s="42" t="s">
         <v>40</v>
@@ -5988,8 +6224,12 @@
       <c r="U66" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V66" s="46"/>
-      <c r="W66" s="46"/>
+      <c r="V66" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W66" s="45" t="s">
+        <v>41</v>
+      </c>
       <c r="X66" s="46"/>
       <c r="Y66" s="46"/>
       <c r="Z66" s="46"/>
@@ -6014,7 +6254,7 @@
       </c>
       <c r="F67" s="41">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G67" s="42" t="s">
         <v>40</v>
@@ -6061,8 +6301,12 @@
       <c r="U67" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V67" s="46"/>
-      <c r="W67" s="46"/>
+      <c r="V67" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W67" s="45" t="s">
+        <v>41</v>
+      </c>
       <c r="X67" s="46"/>
       <c r="Y67" s="46"/>
       <c r="Z67" s="46"/>
@@ -6087,7 +6331,7 @@
       </c>
       <c r="F68" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G68" s="42" t="s">
         <v>42</v>
@@ -6134,8 +6378,12 @@
       <c r="U68" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V68" s="46"/>
-      <c r="W68" s="46"/>
+      <c r="V68" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W68" s="45" t="s">
+        <v>41</v>
+      </c>
       <c r="X68" s="46"/>
       <c r="Y68" s="46"/>
       <c r="Z68" s="46"/>
@@ -6160,7 +6408,7 @@
       </c>
       <c r="F69" s="41">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G69" s="42" t="s">
         <v>40</v>
@@ -6207,8 +6455,12 @@
       <c r="U69" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V69" s="46"/>
-      <c r="W69" s="46"/>
+      <c r="V69" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W69" s="45" t="s">
+        <v>41</v>
+      </c>
       <c r="X69" s="46"/>
       <c r="Y69" s="46"/>
       <c r="Z69" s="46"/>
@@ -6233,7 +6485,7 @@
       </c>
       <c r="F70" s="41">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G70" s="42" t="s">
         <v>40</v>
@@ -6280,8 +6532,12 @@
       <c r="U70" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V70" s="46"/>
-      <c r="W70" s="46"/>
+      <c r="V70" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W70" s="45" t="s">
+        <v>41</v>
+      </c>
       <c r="X70" s="46"/>
       <c r="Y70" s="46"/>
       <c r="Z70" s="46"/>
@@ -6302,11 +6558,11 @@
       </c>
       <c r="E71" s="41">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F71" s="41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G71" s="42" t="s">
         <v>40</v>
@@ -6353,8 +6609,12 @@
       <c r="U71" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="V71" s="46"/>
-      <c r="W71" s="46"/>
+      <c r="V71" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="W71" s="45" t="s">
+        <v>42</v>
+      </c>
       <c r="X71" s="46"/>
       <c r="Y71" s="46"/>
       <c r="Z71" s="46"/>

--- a/attendance-files/B2B/B2B Attendance - B.xlsx
+++ b/attendance-files/B2B/B2B Attendance - B.xlsx
@@ -2554,11 +2554,11 @@
       </c>
       <c r="E19" s="41">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F19" s="41">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" s="42" t="s">
         <v>40</v>
@@ -2597,7 +2597,7 @@
         <v>41</v>
       </c>
       <c r="S19" s="45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T19" s="45" t="s">
         <v>42</v>
